--- a/Excel-XLSX/UN-MLS.xlsx
+++ b/Excel-XLSX/UN-MLS.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5hWAV8</t>
+    <t>QDZ7yC</t>
   </si>
   <si>
     <t>1977</t>
@@ -4146,7 +4146,10 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1319</t>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>1555</t>
   </si>
   <si>
     <t>963</t>
@@ -4209,10 +4212,10 @@
     <t>984</t>
   </si>
   <si>
-    <t>127664</t>
-  </si>
-  <si>
-    <t>39701</t>
+    <t>128365</t>
+  </si>
+  <si>
+    <t>42169</t>
   </si>
   <si>
     <t>987</t>
@@ -4224,10 +4227,10 @@
     <t>989</t>
   </si>
   <si>
-    <t>4298</t>
-  </si>
-  <si>
-    <t>1840</t>
+    <t>4135</t>
+  </si>
+  <si>
+    <t>1574</t>
   </si>
   <si>
     <t>990</t>
@@ -4242,40 +4245,37 @@
     <t>993</t>
   </si>
   <si>
-    <t>1855</t>
+    <t>994</t>
+  </si>
+  <si>
+    <t>995</t>
+  </si>
+  <si>
+    <t>120857</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>1001</t>
   </si>
   <si>
-    <t>994</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>119046</t>
-  </si>
-  <si>
-    <t>2455</t>
-  </si>
-  <si>
-    <t>998</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>1002</t>
   </si>
   <si>
     <t>1003</t>
   </si>
   <si>
-    <t>2949</t>
+    <t>2786</t>
   </si>
   <si>
     <t>1004</t>
@@ -70131,7 +70131,7 @@
         <v>1376</v>
       </c>
       <c r="O963" s="2" t="s">
-        <v>1284</v>
+        <v>1377</v>
       </c>
       <c r="P963" s="2" t="s">
         <v>34</v>
@@ -70166,7 +70166,7 @@
         <v>22</v>
       </c>
       <c r="D964" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E964" s="2" t="s">
         <v>1375</v>
@@ -70196,10 +70196,10 @@
         <v>32</v>
       </c>
       <c r="N964" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O964" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="P964" s="2" t="s">
         <v>34</v>
@@ -70234,7 +70234,7 @@
         <v>22</v>
       </c>
       <c r="D965" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E965" s="2" t="s">
         <v>1375</v>
@@ -70264,10 +70264,10 @@
         <v>32</v>
       </c>
       <c r="N965" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="O965" s="2" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="P965" s="2" t="s">
         <v>34</v>
@@ -70302,7 +70302,7 @@
         <v>22</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>1375</v>
@@ -70332,7 +70332,7 @@
         <v>32</v>
       </c>
       <c r="N966" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O966" s="2" t="s">
         <v>97</v>
@@ -70400,10 +70400,10 @@
         <v>32</v>
       </c>
       <c r="N967" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O967" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P967" s="2" t="s">
         <v>34</v>
@@ -70438,7 +70438,7 @@
         <v>22</v>
       </c>
       <c r="D968" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E968" s="2" t="s">
         <v>1375</v>
@@ -70506,7 +70506,7 @@
         <v>22</v>
       </c>
       <c r="D969" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E969" s="2" t="s">
         <v>1375</v>
@@ -70536,10 +70536,10 @@
         <v>32</v>
       </c>
       <c r="N969" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O969" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P969" s="2" t="s">
         <v>34</v>
@@ -70574,7 +70574,7 @@
         <v>22</v>
       </c>
       <c r="D970" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E970" s="2" t="s">
         <v>1375</v>
@@ -70604,10 +70604,10 @@
         <v>32</v>
       </c>
       <c r="N970" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O970" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P970" s="2" t="s">
         <v>34</v>
@@ -70642,7 +70642,7 @@
         <v>22</v>
       </c>
       <c r="D971" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E971" s="2" t="s">
         <v>1375</v>
@@ -70710,7 +70710,7 @@
         <v>22</v>
       </c>
       <c r="D972" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="E972" s="2" t="s">
         <v>1375</v>
@@ -70740,7 +70740,7 @@
         <v>32</v>
       </c>
       <c r="N972" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O972" s="2" t="s">
         <v>68</v>
@@ -70778,7 +70778,7 @@
         <v>22</v>
       </c>
       <c r="D973" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E973" s="2" t="s">
         <v>1375</v>
@@ -70811,7 +70811,7 @@
         <v>63</v>
       </c>
       <c r="O973" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P973" s="2" t="s">
         <v>34</v>
@@ -70846,7 +70846,7 @@
         <v>22</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E974" s="2" t="s">
         <v>1375</v>
@@ -70876,10 +70876,10 @@
         <v>32</v>
       </c>
       <c r="N974" s="2" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="O974" s="2" t="s">
-        <v>695</v>
+        <v>637</v>
       </c>
       <c r="P974" s="2" t="s">
         <v>34</v>
@@ -70944,10 +70944,10 @@
         <v>32</v>
       </c>
       <c r="N975" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O975" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P975" s="2" t="s">
         <v>34</v>
@@ -70982,7 +70982,7 @@
         <v>22</v>
       </c>
       <c r="D976" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E976" s="2" t="s">
         <v>1375</v>
@@ -71050,7 +71050,7 @@
         <v>22</v>
       </c>
       <c r="D977" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="E977" s="2" t="s">
         <v>1375</v>
@@ -71083,7 +71083,7 @@
         <v>54</v>
       </c>
       <c r="O977" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P977" s="2" t="s">
         <v>34</v>
@@ -71118,7 +71118,7 @@
         <v>22</v>
       </c>
       <c r="D978" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E978" s="2" t="s">
         <v>1375</v>
@@ -71166,7 +71166,7 @@
         <v>34</v>
       </c>
       <c r="T978" s="2" t="s">
-        <v>1147</v>
+        <v>1267</v>
       </c>
       <c r="U978" s="1" t="s">
         <v>35</v>
@@ -71186,7 +71186,7 @@
         <v>22</v>
       </c>
       <c r="D979" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E979" s="2" t="s">
         <v>1375</v>
@@ -71216,10 +71216,10 @@
         <v>32</v>
       </c>
       <c r="N979" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="O979" s="2" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="P979" s="2" t="s">
         <v>34</v>
@@ -71254,7 +71254,7 @@
         <v>22</v>
       </c>
       <c r="D980" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E980" s="2" t="s">
         <v>1375</v>
@@ -71284,10 +71284,10 @@
         <v>32</v>
       </c>
       <c r="N980" s="2" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="O980" s="2" t="s">
-        <v>675</v>
+        <v>571</v>
       </c>
       <c r="P980" s="2" t="s">
         <v>34</v>
@@ -71322,7 +71322,7 @@
         <v>22</v>
       </c>
       <c r="D981" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E981" s="2" t="s">
         <v>1375</v>
@@ -71390,7 +71390,7 @@
         <v>22</v>
       </c>
       <c r="D982" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E982" s="2" t="s">
         <v>1375</v>
@@ -71423,7 +71423,7 @@
         <v>87</v>
       </c>
       <c r="O982" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="P982" s="2" t="s">
         <v>34</v>
@@ -71458,7 +71458,7 @@
         <v>22</v>
       </c>
       <c r="D983" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E983" s="2" t="s">
         <v>1375</v>
@@ -71488,10 +71488,10 @@
         <v>32</v>
       </c>
       <c r="N983" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O983" s="2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="P983" s="2" t="s">
         <v>34</v>
@@ -71526,7 +71526,7 @@
         <v>22</v>
       </c>
       <c r="D984" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E984" s="2" t="s">
         <v>1375</v>
@@ -71594,7 +71594,7 @@
         <v>22</v>
       </c>
       <c r="D985" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E985" s="2" t="s">
         <v>1375</v>
@@ -71624,10 +71624,10 @@
         <v>32</v>
       </c>
       <c r="N985" s="2" t="s">
-        <v>1061</v>
+        <v>1004</v>
       </c>
       <c r="O985" s="2" t="s">
-        <v>860</v>
+        <v>732</v>
       </c>
       <c r="P985" s="2" t="s">
         <v>34</v>
@@ -71760,10 +71760,10 @@
         <v>32</v>
       </c>
       <c r="N987" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="O987" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="P987" s="2" t="s">
         <v>34</v>
@@ -71798,7 +71798,7 @@
         <v>22</v>
       </c>
       <c r="D988" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E988" s="2" t="s">
         <v>1375</v>
@@ -71828,7 +71828,7 @@
         <v>32</v>
       </c>
       <c r="N988" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O988" s="2" t="s">
         <v>34</v>
@@ -71866,7 +71866,7 @@
         <v>22</v>
       </c>
       <c r="D989" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="E989" s="2" t="s">
         <v>1375</v>
@@ -71899,7 +71899,7 @@
         <v>54</v>
       </c>
       <c r="O989" s="2" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="P989" s="2" t="s">
         <v>34</v>
@@ -71934,7 +71934,7 @@
         <v>22</v>
       </c>
       <c r="D990" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E990" s="2" t="s">
         <v>1375</v>
@@ -71964,10 +71964,10 @@
         <v>32</v>
       </c>
       <c r="N990" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="O990" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="P990" s="2" t="s">
         <v>34</v>
@@ -72002,7 +72002,7 @@
         <v>22</v>
       </c>
       <c r="D991" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E991" s="2" t="s">
         <v>1375</v>
@@ -72032,10 +72032,10 @@
         <v>32</v>
       </c>
       <c r="N991" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O991" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="P991" s="2" t="s">
         <v>34</v>
@@ -72070,7 +72070,7 @@
         <v>22</v>
       </c>
       <c r="D992" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E992" s="2" t="s">
         <v>1375</v>
@@ -72138,7 +72138,7 @@
         <v>22</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E993" s="2" t="s">
         <v>1375</v>
@@ -72168,10 +72168,10 @@
         <v>32</v>
       </c>
       <c r="N993" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O993" s="2" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="P993" s="2" t="s">
         <v>34</v>
@@ -72206,7 +72206,7 @@
         <v>22</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E994" s="2" t="s">
         <v>1375</v>
@@ -72236,10 +72236,10 @@
         <v>32</v>
       </c>
       <c r="N994" s="2" t="s">
-        <v>1408</v>
+        <v>237</v>
       </c>
       <c r="O994" s="2" t="s">
-        <v>1409</v>
+        <v>1202</v>
       </c>
       <c r="P994" s="2" t="s">
         <v>34</v>
@@ -72274,7 +72274,7 @@
         <v>22</v>
       </c>
       <c r="D995" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E995" s="2" t="s">
         <v>1375</v>
@@ -72304,10 +72304,10 @@
         <v>32</v>
       </c>
       <c r="N995" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="O995" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="P995" s="2" t="s">
         <v>34</v>
@@ -72342,7 +72342,7 @@
         <v>22</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E996" s="2" t="s">
         <v>1375</v>
@@ -72387,7 +72387,7 @@
         <v>34</v>
       </c>
       <c r="S996" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="T996" s="2" t="s">
         <v>34</v>
@@ -72440,10 +72440,10 @@
         <v>32</v>
       </c>
       <c r="N997" s="2" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="O997" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P997" s="2" t="s">
         <v>34</v>
@@ -72508,10 +72508,10 @@
         <v>32</v>
       </c>
       <c r="N998" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="O998" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="P998" s="2" t="s">
         <v>34</v>
@@ -72546,7 +72546,7 @@
         <v>22</v>
       </c>
       <c r="D999" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E999" s="2" t="s">
         <v>1375</v>
@@ -72576,10 +72576,10 @@
         <v>32</v>
       </c>
       <c r="N999" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O999" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P999" s="2" t="s">
         <v>34</v>
@@ -72614,7 +72614,7 @@
         <v>22</v>
       </c>
       <c r="D1000" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E1000" s="2" t="s">
         <v>1375</v>
@@ -72682,7 +72682,7 @@
         <v>22</v>
       </c>
       <c r="D1001" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E1001" s="2" t="s">
         <v>1375</v>
@@ -72712,10 +72712,10 @@
         <v>32</v>
       </c>
       <c r="N1001" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O1001" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P1001" s="2" t="s">
         <v>34</v>
@@ -72750,7 +72750,7 @@
         <v>22</v>
       </c>
       <c r="D1002" s="2" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
       <c r="E1002" s="2" t="s">
         <v>1375</v>
@@ -72780,7 +72780,7 @@
         <v>32</v>
       </c>
       <c r="N1002" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O1002" s="2" t="s">
         <v>34</v>
@@ -72851,7 +72851,7 @@
         <v>34</v>
       </c>
       <c r="O1003" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P1003" s="2" t="s">
         <v>34</v>
@@ -72916,7 +72916,7 @@
         <v>32</v>
       </c>
       <c r="N1004" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="O1004" s="2" t="s">
         <v>1419</v>
